--- a/数据整理/stocks/A股/上证主板/603005-晶方科技.xlsx
+++ b/数据整理/stocks/A股/上证主板/603005-晶方科技.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>184.86</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>94.99</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>4.18</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>7.7271</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>9</v>
       </c>
     </row>
@@ -525,7 +545,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -546,15 +566,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -566,26 +596,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005794</t>
+          <t>519674</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>银华心怡灵活配置混合</t>
+          <t>银河创新成长混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>94.68</t>
+          <t>142.86</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>4.82</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>6</v>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>9.2573</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -594,26 +634,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>000767</t>
+          <t>010730</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华富国泰民安灵活配置混合</t>
+          <t>银华心佳两年持有期混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>70.71</t>
+          <t>120.43</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3.34</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>9</v>
+          <t>92.37</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.5161</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -622,26 +672,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>006736</t>
+          <t>005794</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>国投瑞银先进制造混合</t>
+          <t>银华心怡灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>92.28</t>
+          <t>40.00</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>7.57</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>5</v>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.9280</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -650,26 +710,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>010730</t>
+          <t>010966</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>银华心佳两年持有期混合</t>
+          <t>富国成长领航混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>92.37</t>
+          <t>76.29</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3.75</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>10</v>
+          <t>33.43</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.0299</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -678,26 +748,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>010966</t>
+          <t>160106</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>富国成长领航混合</t>
+          <t>南方高增长混合(LOF)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>33.43</t>
+          <t>16.92</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1.35</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>9</v>
+          <t>85.77</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5939</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -706,26 +786,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>001704</t>
+          <t>007689</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>国投瑞银进宝灵活配置混合</t>
+          <t>国投瑞银新能源混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>91.09</t>
+          <t>7.28</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>7.89</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>4</v>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.61</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5540</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -734,26 +824,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>001709</t>
+          <t>007690</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>华富物联世界灵活配置混合</t>
+          <t>国投瑞银新能源混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>82.76</t>
+          <t>3.54</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>3.58</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>8</v>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.61</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2694</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="9">
@@ -762,26 +862,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>519674</t>
+          <t>001704</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>银河创新成长混合</t>
+          <t>国投瑞银进宝灵活配置混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>94.34</t>
+          <t>3.34</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>6.48</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>10</v>
+          <t>91.09</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.89</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2635</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="10">
@@ -790,26 +900,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>160106</t>
+          <t>006736</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>南方高增长混合(LOF)</t>
+          <t>国投瑞银先进制造混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>85.77</t>
+          <t>3.08</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>3.51</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>10</v>
+          <t>92.28</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.57</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2332</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="11">
@@ -828,15 +948,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>94.95</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>2.69</t>
         </is>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
         <v>6</v>
       </c>
     </row>
@@ -846,26 +976,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>007689</t>
+          <t>000767</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>国投瑞银新能源混合A</t>
+          <t>华富国泰民安灵活配置混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>92.65</t>
+          <t>0.53</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>7.61</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>5</v>
+          <t>70.71</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0177</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="13">
@@ -874,26 +1014,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>007690</t>
+          <t>001709</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>国投瑞银新能源混合C</t>
+          <t>华富物联世界灵活配置混合</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>92.65</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>7.61</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>5</v>
+          <t>82.76</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/603005-晶方科技.xlsx
+++ b/数据整理/stocks/A股/上证主板/603005-晶方科技.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1049,4 +1050,782 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>160106</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方高增长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>18.49</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.29</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9485</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>007689</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国投瑞银新能源混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.93</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>95.73</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.07</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5607</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006864</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国联安核心资产策略混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.42</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.42</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3553</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006736</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国投瑞银先进制造混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.69</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.50</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3300</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001704</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国投瑞银进宝灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.79</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3194</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007690</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国投瑞银新能源混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>95.73</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.07</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2269</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>003986</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数优选增强A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>14.78</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.53</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1862</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001322</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>东吴新趋势价值线灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1362</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002510</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.17</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0596</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009954</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>北信瑞丰优选成长股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0491</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001323</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>东吴移动互联灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0386</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>000767</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华富国泰民安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>64.50</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0308</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>004266</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>招商沪港深科技创新主题精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0283</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>007795</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.17</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001829</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>北信瑞丰中国智造主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>002123</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>北信瑞丰外延增长主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>007794</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数优选增强C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.53</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010754</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>招商沪港深科技创新主题精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>002170</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>东吴移动互联灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603005-晶方科技.xlsx
+++ b/数据整理/stocks/A股/上证主板/603005-晶方科技.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1828,4 +1829,250 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001322</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东吴新趋势价值线灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.25</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1271</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001323</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东吴移动互联灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0427</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>007903</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>长城量化小盘股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>82.70</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0284</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000767</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华富国泰民安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>72.08</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0224</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002170</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>东吴移动互联灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603005-晶方科技.xlsx
+++ b/数据整理/stocks/A股/上证主板/603005-晶方科技.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2075,4 +2076,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>19</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.31</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>12</v>
+      </c>
+      <c r="D4" t="n">
+        <v>18.69</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>7.73</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603005-晶方科技.xlsx
+++ b/数据整理/stocks/A股/上证主板/603005-晶方科技.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2084,7 +2085,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2095,17 +2096,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2115,14 +2136,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.22</v>
+          <t>001323</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东吴移动互联灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>24.03</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.98</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.6773</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -2131,14 +2174,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>19</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3.31</v>
+          <t>010490</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华高质量增长混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>17.84</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.41</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5637</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -2147,14 +2212,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>12</v>
-      </c>
-      <c r="D4" t="n">
-        <v>18.69</v>
+          <t>519017</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大成积极成长混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>17.32</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.06</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5404</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -2163,13 +2250,643 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>010330</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>东吴兴享成长混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>14.05</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>75.92</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3709</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002604</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏新起点灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.46</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>76.24</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3708</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008009</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华商高端装备制造股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8.39</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.62</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2718</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001322</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>东吴新趋势价值线灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1654</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009023</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>鹏华稳健回报混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.17</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1345</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>000328</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>上投摩根转型动力混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>83.62</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1280</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>580002</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>东吴价值成长双动力混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>87.78</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1023</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>000767</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华富国泰民安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>80.40</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0193</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>000531</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>东吴阿尔法灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.94</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010491</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>鹏华高质量增长混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>89.41</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011462</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>东吴兴享成长混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>75.92</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>002170</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>东吴移动互联灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.98</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>008213</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华夏新起点灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>76.24</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011241</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>东吴价值成长双动力混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>87.78</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>17</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.39</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>19</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.31</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>12</v>
+      </c>
+      <c r="D5" t="n">
+        <v>18.69</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>1</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>7.73</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603005-晶方科技.xlsx
+++ b/数据整理/stocks/A股/上证主板/603005-晶方科技.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2785,7 +2786,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2796,17 +2797,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2816,14 +2837,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>17</v>
-      </c>
-      <c r="D2" t="n">
-        <v>4.39</v>
+          <t>519017</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成积极成长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>17.32</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.40</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6737</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -2832,14 +2875,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>5</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.22</v>
+          <t>010490</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华高质量增长混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>13.31</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3660</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -2848,14 +2913,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>19</v>
-      </c>
-      <c r="D4" t="n">
-        <v>3.31</v>
+          <t>580002</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>东吴价值成长双动力混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.87</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0829</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -2864,14 +2951,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>12</v>
-      </c>
-      <c r="D5" t="n">
-        <v>18.69</v>
+          <t>001415</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>信诚新锐回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>9.07</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>24.72</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0662</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -2880,13 +2989,469 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>001402</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>信诚新选回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.37</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>22.05</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0536</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>003234</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>信诚至利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8.99</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>22.05</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0530</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004157</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>信诚至诚灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.32</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>22.71</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0498</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002046</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>信诚新锐回报灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>24.72</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0379</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>003235</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>信诚至利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>22.05</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0313</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>002030</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>信诚新选回报灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>22.05</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0246</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>004158</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>信诚至诚灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>22.71</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010491</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>鹏华高质量增长混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011241</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>东吴价值成长双动力混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>85.87</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>13</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>17</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.39</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>19</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.31</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>12</v>
+      </c>
+      <c r="D6" t="n">
+        <v>18.69</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>1</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>7.73</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603005-晶方科技.xlsx
+++ b/数据整理/stocks/A股/上证主板/603005-晶方科技.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3334,7 +3335,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3345,17 +3346,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3365,14 +3386,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>13</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.46</v>
+          <t>001322</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东吴新趋势价值线灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.88</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1847</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -3381,14 +3424,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>17</v>
-      </c>
-      <c r="D3" t="n">
-        <v>4.39</v>
+          <t>580002</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东吴价值成长双动力混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.33</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1420</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -3397,14 +3462,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>5</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.22</v>
+          <t>001323</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>东吴移动互联灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.16</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0907</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -3413,14 +3500,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>19</v>
-      </c>
-      <c r="D5" t="n">
-        <v>3.31</v>
+          <t>510760</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰上证综合ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>95.71</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0301</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -3429,14 +3538,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>12</v>
-      </c>
-      <c r="D6" t="n">
-        <v>18.69</v>
+          <t>002170</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>东吴移动互联灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.16</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0174</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -3445,13 +3576,257 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>165524</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>信诚中证智能家居指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>013084</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>信诚中证智能家居指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011241</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>东吴价值成长双动力混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.33</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>13</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>17</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.39</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>19</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3.31</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>12</v>
+      </c>
+      <c r="D7" t="n">
+        <v>18.69</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>1</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>7.73</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603005-晶方科技.xlsx
+++ b/数据整理/stocks/A股/上证主板/603005-晶方科技.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D2" t="n">
-        <v>0.47</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D3" t="n">
-        <v>1.46</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D4" t="n">
-        <v>4.39</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="D5" t="n">
-        <v>0.22</v>
+        <v>4.39</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>3.31</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D7" t="n">
-        <v>18.69</v>
+        <v>3.31</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>12</v>
+      </c>
+      <c r="D8" t="n">
+        <v>18.69</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>1</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>7.73</v>
       </c>
     </row>
@@ -600,6 +617,326 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001322</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东吴新趋势价值线灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.76</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1327</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>580002</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东吴价值成长双动力混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.84</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1038</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>014376</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>东吴新能源汽车股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.64</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0741</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001323</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>东吴移动互联灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.30</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0445</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>014377</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>东吴新能源汽车股票C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.64</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002170</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>东吴移动互联灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.30</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011241</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>东吴价值成长双动力混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.84</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -957,7 +1294,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1505,7 +1842,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2205,7 +2542,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2451,7 +2788,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3229,7 +3566,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3741,7 +4078,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/603005-晶方科技.xlsx
+++ b/数据整理/stocks/A股/上证主板/603005-晶方科技.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>0.38</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D3" t="n">
-        <v>0.47</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D4" t="n">
-        <v>1.46</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D5" t="n">
-        <v>4.39</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="D6" t="n">
-        <v>0.22</v>
+        <v>4.39</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
-        <v>3.31</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D8" t="n">
-        <v>18.69</v>
+        <v>3.31</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>12</v>
+      </c>
+      <c r="D9" t="n">
+        <v>18.69</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>1</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>7.73</v>
       </c>
     </row>
@@ -616,7 +633,347 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>519674</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银河创新成长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>184.86</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>7.7271</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001322</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东吴新趋势价值线灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.95</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1468</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>014376</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东吴新能源汽车股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.12</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0793</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001323</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>东吴移动互联灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.45</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.49</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0475</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>014377</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>东吴新能源汽车股票C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.12</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0228</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002170</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>东吴移动互联灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.45</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.49</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -936,7 +1293,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1294,7 +1651,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1842,7 +2199,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2542,7 +2899,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2788,7 +3145,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3566,7 +3923,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4076,98 +4433,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>519674</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>银河创新成长混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>184.86</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.99</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.18</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>7.7271</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>